--- a/Cdata_Sync連携手順.xlsx
+++ b/Cdata_Sync連携手順.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwk10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D1BCF-F2AD-40EB-AAE9-938C03004506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DABF6EE-8313-4DD0-A7A6-749F0CE6BEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sfdc-postgres" sheetId="1" r:id="rId1"/>
     <sheet name="その他備忘" sheetId="2" r:id="rId2"/>
-    <sheet name="ヘルプ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,37 +270,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>５、転送先データが更新されることを確認する。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手順概要：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Cdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Sync</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を使用し、例として、SalesforceからPostgresにデータを転送する手順になります。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -408,18 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※データベースに連携するパラメータが既存のチームからもらうのが一般的な流れだと考えられる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgresに受け取る結果：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salesforce から転送されるべきデータ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>エラーが発生する場合：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,6 +414,56 @@
   </si>
   <si>
     <t>①－2　テーブルデータが削除されるを回避する方法は「テーブルデータを削除」チェックしないこと。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Cdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Sync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用し、サンプルとして、SalesforceからPostgresにデータを転送する手順になります。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-1 実行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-1 実行後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>５、実行結果の確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（※データベースに連携するパラメータが既存のチームからもらうのが一般的な流れのため、この手順は省略できる）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -574,6 +581,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,21 +610,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>671</xdr:row>
+      <xdr:row>630</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>199049</xdr:colOff>
-      <xdr:row>686</xdr:row>
-      <xdr:rowOff>105152</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>198491</xdr:colOff>
+      <xdr:row>664</xdr:row>
+      <xdr:rowOff>157562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3992F12F-EF5B-4FC4-B8BA-D3192BB84B52}"/>
+        <xdr:cNvPr id="89" name="Picture 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF6C354-D656-48EE-89B4-9F240E8CD2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -622,16 +632,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="12563"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="412376" y="132336988"/>
-          <a:ext cx="10714649" cy="3063505"/>
+          <a:off x="412376" y="121489694"/>
+          <a:ext cx="14631668" cy="6863162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -644,21 +653,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>616</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>198491</xdr:colOff>
-      <xdr:row>650</xdr:row>
-      <xdr:rowOff>157562</xdr:rowOff>
+      <xdr:colOff>153668</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>22450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF6C354-D656-48EE-89B4-9F240E8CD2AC}"/>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C76D5AC-5D5D-44A9-B226-A9E7DD947632}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -668,13 +677,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect t="12563"/>
+        <a:srcRect t="12343"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="412376" y="121489694"/>
-          <a:ext cx="14631668" cy="6863162"/>
+          <a:off x="412376" y="53842024"/>
+          <a:ext cx="14586845" cy="6925274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,21 +696,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>153668</xdr:colOff>
-      <xdr:row>308</xdr:row>
-      <xdr:rowOff>22451</xdr:rowOff>
+      <xdr:colOff>198491</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>175492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C76D5AC-5D5D-44A9-B226-A9E7DD947632}"/>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5CF5B1-D911-465D-8E4E-C29ED1D9D0CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -711,49 +720,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="12343"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="412376" y="53842024"/>
-          <a:ext cx="14586845" cy="6925274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>198491</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>175492</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5CF5B1-D911-465D-8E4E-C29ED1D9D0CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect t="12335"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -773,14 +739,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>2199</xdr:colOff>
-      <xdr:row>422</xdr:row>
-      <xdr:rowOff>81072</xdr:rowOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>81071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,7 +762,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -817,13 +783,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -840,7 +806,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -878,13 +844,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -901,7 +867,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -939,13 +905,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>122519</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>60983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -962,7 +928,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -983,13 +949,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1006,7 +972,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1044,13 +1010,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1067,7 +1033,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1105,13 +1071,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1128,7 +1094,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1166,13 +1132,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1189,7 +1155,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1227,13 +1193,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>198491</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>157563</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1250,7 +1216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:srcRect t="12563"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -1270,13 +1236,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>170329</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1336,13 +1302,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1392,13 +1358,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>198491</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>193420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1415,7 +1381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:srcRect t="12106"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -1435,13 +1401,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>98611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1501,13 +1467,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>197225</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>107578</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1555,81 +1521,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>128069</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>138954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A543B24-C357-4FF5-A430-513B21D08516}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3890682" y="50420069"/>
-          <a:ext cx="3810000" cy="2377567"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>188258</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1793,13 +1693,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>130806</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>150813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1816,7 +1716,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1837,13 +1737,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1903,13 +1803,13 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>5123</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>61474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>122305</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>97333</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1959,13 +1859,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>174170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>185056</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2025,13 +1925,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>201067</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>192103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2081,13 +1981,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>101175</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2147,14 +2047,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>130806</xdr:colOff>
-      <xdr:row>386</xdr:row>
-      <xdr:rowOff>23456</xdr:rowOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>23455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2170,7 +2070,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2191,13 +2091,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2257,13 +2157,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>195941</xdr:colOff>
-      <xdr:row>407</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>43542</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2442,13 +2342,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>413</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>108855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2508,14 +2408,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>462</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>126272</xdr:colOff>
-      <xdr:row>467</xdr:row>
-      <xdr:rowOff>56697</xdr:rowOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>56696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2523,6 +2423,50 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753FCE09-E4E3-46CE-9046-13B43B201811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="413657" y="73086686"/>
+          <a:ext cx="12535986" cy="1036410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>153668</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>8215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A1FAB-C40A-44C2-B2BE-1E7391211D7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,50 +2482,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="413657" y="73086686"/>
-          <a:ext cx="12535986" cy="1036410"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>472</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>153668</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>8216</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A1FAB-C40A-44C2-B2BE-1E7391211D7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="413657" y="74850171"/>
           <a:ext cx="14631668" cy="6866215"/>
         </a:xfrm>
@@ -2596,13 +2496,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>488</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>494</xdr:row>
+      <xdr:row>508</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2760,13 +2660,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>481</xdr:row>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2826,13 +2726,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>40981</xdr:colOff>
-      <xdr:row>485</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>57630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2882,13 +2782,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>486</xdr:row>
+      <xdr:row>500</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2948,13 +2848,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>182497</xdr:colOff>
-      <xdr:row>481</xdr:row>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>101174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3004,14 +2904,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>509</xdr:row>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>154613</xdr:colOff>
-      <xdr:row>538</xdr:row>
-      <xdr:rowOff>56013</xdr:rowOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>56014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3027,7 +2927,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3048,13 +2948,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>542</xdr:row>
       <xdr:rowOff>7684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>543</xdr:row>
       <xdr:rowOff>181855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3114,13 +3014,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160725</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>539</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>541</xdr:row>
       <xdr:rowOff>116540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3170,13 +3070,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>541</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>153668</xdr:colOff>
-      <xdr:row>575</xdr:row>
+      <xdr:row>589</xdr:row>
       <xdr:rowOff>173675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3193,7 +3093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3214,13 +3114,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>551</xdr:row>
+      <xdr:row>565</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>553</xdr:row>
+      <xdr:row>567</xdr:row>
       <xdr:rowOff>94769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3280,13 +3180,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>128068</xdr:colOff>
-      <xdr:row>548</xdr:row>
+      <xdr:row>562</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>551</xdr:row>
+      <xdr:row>565</xdr:row>
       <xdr:rowOff>29455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3336,13 +3236,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>566</xdr:row>
+      <xdr:row>580</xdr:row>
       <xdr:rowOff>51226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>141513</xdr:colOff>
-      <xdr:row>568</xdr:row>
+      <xdr:row>582</xdr:row>
       <xdr:rowOff>29454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3402,13 +3302,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>568</xdr:row>
+      <xdr:row>582</xdr:row>
       <xdr:rowOff>116540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>571</xdr:row>
+      <xdr:row>585</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3458,13 +3358,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>592</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>153668</xdr:colOff>
-      <xdr:row>612</xdr:row>
+      <xdr:row>626</xdr:row>
       <xdr:rowOff>188917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3481,7 +3381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3502,13 +3402,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>603</xdr:row>
+      <xdr:row>617</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>605</xdr:row>
+      <xdr:row>619</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3568,13 +3468,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>141516</xdr:colOff>
-      <xdr:row>606</xdr:row>
+      <xdr:row>620</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>608</xdr:row>
+      <xdr:row>622</xdr:row>
       <xdr:rowOff>177374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3624,13 +3524,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>598</xdr:row>
+      <xdr:row>612</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>600</xdr:row>
+      <xdr:row>614</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3690,13 +3590,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>130631</xdr:colOff>
-      <xdr:row>600</xdr:row>
+      <xdr:row>614</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>195944</xdr:colOff>
-      <xdr:row>603</xdr:row>
+      <xdr:row>617</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3746,13 +3646,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>176092</xdr:colOff>
-      <xdr:row>626</xdr:row>
+      <xdr:row>640</xdr:row>
       <xdr:rowOff>178013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>186978</xdr:colOff>
-      <xdr:row>629</xdr:row>
+      <xdr:row>643</xdr:row>
       <xdr:rowOff>67874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3808,25 +3708,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>4394</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>149049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BD239E-DC5D-4248-831B-A20978E6C806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="699247" y="3944471"/>
+          <a:ext cx="9327688" cy="2712955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>30734</xdr:colOff>
-      <xdr:row>679</xdr:row>
-      <xdr:rowOff>3842</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>125504</xdr:colOff>
-      <xdr:row>682</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Rectangle: Rounded Corners 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF0F07F-E855-4A29-BACA-E43F040CFC5E}"/>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882A47F6-232F-4A12-98E5-EB7CB9D0813D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,14 +3778,146 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="443110" y="133918618"/>
-          <a:ext cx="9167053" cy="641617"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="2017059" y="4661647"/>
+          <a:ext cx="3890683" cy="197224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107578</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>98610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A56F166-360D-4552-897A-63F483DC7279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1506072" y="5414680"/>
+          <a:ext cx="1676400" cy="206189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6258FA7-751B-4BE8-9A4E-195C93423678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3836893" y="57777529"/>
+          <a:ext cx="3908613" cy="1174378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -3876,23 +3952,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>4394</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>149049</xdr:rowOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>198491</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>157562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="図 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BD239E-DC5D-4248-831B-A20978E6C806}"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B69ADB1-94BC-4C43-B033-46841D965326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,16 +3976,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="12335"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="699247" y="3944471"/>
-          <a:ext cx="9327688" cy="2712955"/>
+          <a:off x="412376" y="83604847"/>
+          <a:ext cx="14631668" cy="6881092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3920,23 +3995,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>83884</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="正方形/長方形 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882A47F6-232F-4A12-98E5-EB7CB9D0813D}"/>
+        <xdr:cNvPr id="78" name="Rectangle 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D33736-69AD-42A5-A147-81436D8CD5D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,140 +4019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2017059" y="4661647"/>
-          <a:ext cx="3890683" cy="197224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107578</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98610</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="正方形/長方形 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A56F166-360D-4552-897A-63F483DC7279}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1506072" y="5414680"/>
-          <a:ext cx="1676400" cy="206189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>125505</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>188258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>298</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6258FA7-751B-4BE8-9A4E-195C93423678}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3836893" y="57777529"/>
-          <a:ext cx="3908613" cy="1174378"/>
+          <a:off x="3827929" y="86312189"/>
+          <a:ext cx="3884920" cy="1981199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4116,126 +4059,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>423</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>198491</xdr:colOff>
-      <xdr:row>458</xdr:row>
-      <xdr:rowOff>157563</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B69ADB1-94BC-4C43-B033-46841D965326}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:srcRect t="12335"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="412376" y="83604847"/>
-          <a:ext cx="14631668" cy="6881092"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>437</xdr:row>
-      <xdr:rowOff>125507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>83884</xdr:colOff>
-      <xdr:row>447</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Rectangle 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D33736-69AD-42A5-A147-81436D8CD5D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3827929" y="86312189"/>
-          <a:ext cx="3884920" cy="1981199"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>452</xdr:row>
       <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>461</xdr:row>
       <xdr:rowOff>38420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4550,13 +4384,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>143437</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>137032</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4869,23 +4703,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>656</xdr:row>
+      <xdr:row>673</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>30836</xdr:colOff>
-      <xdr:row>668</xdr:row>
-      <xdr:rowOff>56687</xdr:rowOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>46079</xdr:colOff>
+      <xdr:row>682</xdr:row>
+      <xdr:rowOff>69188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEA54E0-FCD2-4763-889F-15A7E6B46B36}"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F85E45C-4AC2-406A-B104-F0D3D3DE7FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618565" y="134506447"/>
+          <a:ext cx="14479255" cy="1844200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>685</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>49218</xdr:colOff>
+      <xdr:row>698</xdr:row>
+      <xdr:rowOff>34739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97582096-F529-4D83-9A31-D7381A6FFC50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,8 +4779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="412376" y="129378635"/>
-          <a:ext cx="14464013" cy="2423370"/>
+          <a:off x="618565" y="136873129"/>
+          <a:ext cx="9327688" cy="2598645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4911,25 +4789,113 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>704</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>46079</xdr:colOff>
+      <xdr:row>713</xdr:row>
+      <xdr:rowOff>69189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BC375E-9A85-4196-B2E8-138EA1B10481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618565" y="140620376"/>
+          <a:ext cx="14479255" cy="1844200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>716</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>199049</xdr:colOff>
+      <xdr:row>731</xdr:row>
+      <xdr:rowOff>105152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6D7803-35A4-4DB6-98D9-F445B0E8B30A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618565" y="142987059"/>
+          <a:ext cx="10714649" cy="3063505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>662</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>193383</xdr:colOff>
-      <xdr:row>664</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>14088</xdr:colOff>
+      <xdr:row>712</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Rectangle: Rounded Corners 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0ACA138-8252-44A7-8D7D-6AB781156851}"/>
+        <xdr:cNvPr id="77" name="Rectangle: Rounded Corners 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA46DA9-A356-4677-9F40-26468074161C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4937,8 +4903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="421342" y="130561977"/>
-          <a:ext cx="14411406" cy="502023"/>
+          <a:off x="654423" y="141758894"/>
+          <a:ext cx="14411406" cy="502022"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4977,73 +4943,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>198491</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>184456</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400C2E42-9B7F-4398-834F-CAF0FA1BD9C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="12221"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="412376" y="1748118"/>
-          <a:ext cx="14631668" cy="6890056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>143433</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>26893</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>32018</xdr:colOff>
+      <xdr:row>681</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EE640E-B3C1-47A8-B3F5-9EA626B630DB}"/>
+        <xdr:cNvPr id="87" name="Rectangle: Rounded Corners 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CCAA3B-AD01-4833-81AA-8A2C22AB1D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5051,8 +4969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6741457" y="7897906"/>
-          <a:ext cx="1326777" cy="313765"/>
+          <a:off x="672353" y="135644964"/>
+          <a:ext cx="14411406" cy="502022"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5093,79 +5011,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE9B0CD-5EE7-40B5-8DC2-98618CB1E22B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8175812" y="8095129"/>
-          <a:ext cx="528918" cy="430306"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>134468</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>724</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>726</xdr:row>
+      <xdr:rowOff>179292</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB13AB15-51D7-4BA7-892B-92F6165EAAE2}"/>
+        <xdr:cNvPr id="88" name="Rectangle: Rounded Corners 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2AE498-3488-4598-9B77-FC86079DB80B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5173,8 +5035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6732492" y="8677836"/>
-          <a:ext cx="1685367" cy="313765"/>
+          <a:off x="627529" y="144636564"/>
+          <a:ext cx="8982636" cy="502022"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5215,127 +5077,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3CED55-C00A-4A13-82ED-C4DFB9235E2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8337176" y="9045388"/>
-          <a:ext cx="528918" cy="430306"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>55953</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>150390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F04DB00-FA4D-4BFB-8BAA-98996D9D5B3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="12849"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="175260"/>
-          <a:ext cx="14663493" cy="6810270"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>695</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76217A76-F6AC-4ECE-84B8-33819B8DD062}"/>
+        <xdr:cNvPr id="90" name="Rectangle: Rounded Corners 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FB65FB-34E2-4C18-A713-4BB1FD4504EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5343,10 +5101,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3897086" y="152400"/>
-          <a:ext cx="838200" cy="707571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="609600" y="138388165"/>
+          <a:ext cx="9144000" cy="502022"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -5381,6 +5139,762 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134469</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>134469</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle with Corners Rounded 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE40A01-D210-4EFE-9922-40D361CD92C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3639669" y="5970495"/>
+          <a:ext cx="2886635" cy="968188"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69147"/>
+            <a:gd name="adj2" fmla="val -44030"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ここが作成された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>mydb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が空っぽのため、データまたはテーブルが一切存在しません。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Speech Bubble: Rectangle with Corners Rounded 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F02D6D4-ECDA-4B9F-AC4E-FA4862BC35C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="582706" y="58754683"/>
+          <a:ext cx="2841811" cy="968188"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59293"/>
+            <a:gd name="adj2" fmla="val -44517"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ここに「プロパティリスト」、「接続文字列」どれを選択しても、後続の手順が変わりません。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle: Rounded Corners 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B49D155-4504-49C4-801B-5C984BC50537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3827929" y="50309929"/>
+          <a:ext cx="3926542" cy="2761130"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Speech Bubble: Rectangle with Corners Rounded 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE93F50C-9BFF-4C11-9BE8-7DE7B44C72FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2303930" y="82771129"/>
+          <a:ext cx="2841811" cy="968188"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59293"/>
+            <a:gd name="adj2" fmla="val -44517"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ここに「プロパティリスト」、「接続文字列」どれを選択しても、後続の手順が変わりません。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>49218</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>34740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE02336-50E4-499E-A0DA-A52E8760311E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618565" y="7297271"/>
+          <a:ext cx="9327688" cy="2598645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB95E5C-9AD2-43C1-BD97-AE66B33FE9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618565" y="8964706"/>
+          <a:ext cx="3558988" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>198491</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>184456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400C2E42-9B7F-4398-834F-CAF0FA1BD9C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="12221"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412376" y="1748118"/>
+          <a:ext cx="14631668" cy="6890056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>143433</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>26893</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EE640E-B3C1-47A8-B3F5-9EA626B630DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6741457" y="7897906"/>
+          <a:ext cx="1326777" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE9B0CD-5EE7-40B5-8DC2-98618CB1E22B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8175812" y="8095129"/>
+          <a:ext cx="528918" cy="430306"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>134468</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB13AB15-51D7-4BA7-892B-92F6165EAAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6732492" y="8677836"/>
+          <a:ext cx="1685367" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3CED55-C00A-4A13-82ED-C4DFB9235E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8337176" y="9045388"/>
+          <a:ext cx="528918" cy="430306"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5649,9 +6163,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D688"/>
+  <dimension ref="A1:D824"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5666,373 +6180,392 @@
     <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
     <row r="7" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+    <row r="9" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+    <row r="10" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+    <row r="14" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="16" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-    </row>
-    <row r="36" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+    </row>
+    <row r="37" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="53" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+    <row r="55" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
+    <row r="56" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="3" t="s">
+    <row r="75" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="3" t="s">
+    <row r="76" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
+    <row r="95" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="1" t="s">
+    <row r="114" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="1" t="s">
+    <row r="115" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="1" t="s">
+    <row r="118" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
+    <row r="137" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="1" t="s">
+    <row r="138" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="3" t="s">
+    <row r="139" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="3" t="s">
+    <row r="158" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="3" t="s">
+    <row r="177" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-      <c r="C163" s="1" t="s">
+    <row r="178" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+      <c r="C178" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="3" t="s">
+    <row r="179" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C201" s="6" t="s">
+    <row r="216" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C216" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C312" s="1" t="s">
+    <row r="326" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C326" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C313" s="3" t="s">
+    <row r="327" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C327" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C389" s="1" t="s">
+    <row r="403" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C403" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C390" s="3" t="s">
+    <row r="404" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C404" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="391" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C391" s="1" t="s">
+    <row r="405" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C405" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="392" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C392" s="3" t="s">
+    <row r="406" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C406" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="462" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C462" s="3" t="s">
+    <row r="476" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C476" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B471" s="3" t="s">
+    <row r="485" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="472" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C472" s="1" t="s">
+    <row r="486" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C486" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="509" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C509" s="3" t="s">
+    <row r="523" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C523" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="540" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C540" s="3" t="s">
+    <row r="554" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C554" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="541" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C541" s="3" t="s">
+    <row r="555" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C555" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="578" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C578" s="3" t="s">
+    <row r="592" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C592" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="616" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C616" s="1" t="s">
+    <row r="630" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C630" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="654" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B654" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="655" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B655" s="3"/>
-    </row>
-    <row r="656" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B656" s="3"/>
-      <c r="C656" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="657" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B657" s="3"/>
-    </row>
-    <row r="658" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B658" s="3"/>
-    </row>
-    <row r="659" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B659" s="3"/>
-    </row>
-    <row r="660" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B660" s="3"/>
-    </row>
-    <row r="661" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B661" s="3"/>
-    </row>
-    <row r="662" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B662" s="3"/>
-    </row>
-    <row r="663" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B663" s="3"/>
-    </row>
-    <row r="664" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B664" s="3"/>
-    </row>
-    <row r="665" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B665" s="3"/>
-    </row>
-    <row r="666" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B666" s="3"/>
-    </row>
-    <row r="667" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B667" s="3"/>
-    </row>
-    <row r="668" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B668" s="3"/>
-    </row>
     <row r="669" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B669" s="3"/>
-    </row>
-    <row r="670" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B670" s="3"/>
+      <c r="B669" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="671" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B671" s="3"/>
-      <c r="C671" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="672" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B672" s="3"/>
-    </row>
-    <row r="673" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B673" s="3"/>
-    </row>
-    <row r="674" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B674" s="3"/>
-    </row>
-    <row r="675" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="3"/>
-    </row>
-    <row r="676" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B676" s="3"/>
-    </row>
-    <row r="677" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B677" s="3"/>
-    </row>
-    <row r="678" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B678" s="3"/>
-    </row>
-    <row r="679" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B679" s="3"/>
-    </row>
-    <row r="680" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B680" s="3"/>
-    </row>
-    <row r="681" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B681" s="3"/>
-    </row>
-    <row r="682" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B682" s="3"/>
-    </row>
-    <row r="683" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B683" s="3"/>
-    </row>
-    <row r="684" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B684" s="3"/>
-    </row>
-    <row r="685" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B685" s="3"/>
-    </row>
-    <row r="686" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B686" s="3"/>
-    </row>
-    <row r="687" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B687" s="3"/>
-    </row>
-    <row r="688" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B688" s="3"/>
+      <c r="C671" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="673" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D673" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="685" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D685" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="702" spans="3:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C702" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="704" spans="3:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D704" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="716" spans="4:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D716" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B794" s="3"/>
+    </row>
+    <row r="795" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B795" s="3"/>
+    </row>
+    <row r="796" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B796" s="3"/>
+    </row>
+    <row r="797" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B797" s="3"/>
+    </row>
+    <row r="798" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B798" s="3"/>
+    </row>
+    <row r="799" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B799" s="3"/>
+    </row>
+    <row r="800" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B800" s="3"/>
+    </row>
+    <row r="801" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B801" s="3"/>
+    </row>
+    <row r="802" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B802" s="3"/>
+    </row>
+    <row r="803" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B803" s="3"/>
+    </row>
+    <row r="804" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B804" s="3"/>
+    </row>
+    <row r="805" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B805" s="3"/>
+    </row>
+    <row r="806" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B806" s="3"/>
+    </row>
+    <row r="807" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B807" s="3"/>
+    </row>
+    <row r="808" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B808" s="3"/>
+    </row>
+    <row r="809" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B809" s="3"/>
+    </row>
+    <row r="810" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B810" s="3"/>
+    </row>
+    <row r="811" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B811" s="3"/>
+    </row>
+    <row r="812" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B812" s="3"/>
+    </row>
+    <row r="813" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B813" s="3"/>
+    </row>
+    <row r="814" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B814" s="3"/>
+    </row>
+    <row r="815" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B815" s="3"/>
+    </row>
+    <row r="816" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B816" s="3"/>
+    </row>
+    <row r="817" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B817" s="3"/>
+    </row>
+    <row r="818" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B818" s="3"/>
+    </row>
+    <row r="819" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B819" s="3"/>
+    </row>
+    <row r="820" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B820" s="3"/>
+    </row>
+    <row r="821" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B821" s="3"/>
+    </row>
+    <row r="822" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B822" s="3"/>
+    </row>
+    <row r="823" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B823" s="3"/>
+    </row>
+    <row r="824" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B824" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{7D9073F3-0622-43BA-9BA3-CD72AABC8C09}"/>
-    <hyperlink ref="C41" r:id="rId2" xr:uid="{45D23469-E495-4F89-BFE3-B54D11CAED4C}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{839CA795-1D69-4518-902A-E192B2E0FA27}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{7D9073F3-0622-43BA-9BA3-CD72AABC8C09}"/>
+    <hyperlink ref="C56" r:id="rId2" xr:uid="{45D23469-E495-4F89-BFE3-B54D11CAED4C}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{839CA795-1D69-4518-902A-E192B2E0FA27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -6042,7 +6575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4FC3E-9F4D-43D0-AA8A-B608B7BF7E6B}">
-  <dimension ref="B2:E69"/>
+  <dimension ref="B2:E67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6053,97 +6586,97 @@
   <sheetData>
     <row r="2" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="3:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+    <row r="66" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="7" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6151,18 +6684,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD602E16-BFA9-4234-BD1E-699CC31E82AB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>